--- a/subji's/Aloo shimla mirch ki subji.xlsx
+++ b/subji's/Aloo shimla mirch ki subji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\subji's\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D1EF2F-3FC2-4406-A236-4658A68DD650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AA9F1F-47EE-4490-9CFD-C8ED2747B3DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8CBC1288-2A94-44F0-92DE-D9C7067027C5}"/>
   </bookViews>
@@ -108,8 +108,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -172,13 +172,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -248,9 +248,6 @@
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -285,6 +282,9 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -300,12 +300,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{62D3D990-A37B-4574-9E7C-188345688599}" name="Table1" displayName="Table1" ref="A1:C21" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{62D3D990-A37B-4574-9E7C-188345688599}" name="Table1" displayName="Table1" ref="A1:C21" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:C21" xr:uid="{E6DF7843-CCFE-46BB-8C76-16C9C1837804}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{382C60B3-9894-450F-A540-3781C9DE12F6}" name="Item name" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{A862CFC1-0EDB-4101-A728-4BAAEC8B1D42}" name="Itna daalo" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{52E81594-B56D-4F0A-AC19-BBD425D35B83}" name="Units" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{382C60B3-9894-450F-A540-3781C9DE12F6}" name="Item name" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{A862CFC1-0EDB-4101-A728-4BAAEC8B1D42}" name="Itna daalo" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{52E81594-B56D-4F0A-AC19-BBD425D35B83}" name="Units" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -685,7 +685,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E2" sqref="E2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,13 +726,13 @@
       </c>
       <c r="B2" s="7">
         <f>E2*F2/G2</f>
-        <v>2070</v>
+        <v>575</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>460</v>
@@ -746,14 +746,14 @@
         <v>4</v>
       </c>
       <c r="B3" s="7">
-        <f>E2*F3/G3</f>
-        <v>9</v>
+        <f t="shared" ref="B3:B13" si="0">E2*F3/G3</f>
+        <v>2.5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -767,14 +767,14 @@
         <v>6</v>
       </c>
       <c r="B4" s="7">
-        <f>E3*F4/G4</f>
-        <v>1.125</v>
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>0.25</v>
@@ -788,14 +788,14 @@
         <v>7</v>
       </c>
       <c r="B5" s="7">
-        <f>E4*F5/G5</f>
-        <v>4.5</v>
+        <f t="shared" si="0"/>
+        <v>1.25</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -809,14 +809,14 @@
         <v>8</v>
       </c>
       <c r="B6" s="7">
-        <f>E5*F6/G6</f>
-        <v>2.25</v>
+        <f t="shared" si="0"/>
+        <v>0.625</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>0.5</v>
@@ -830,14 +830,14 @@
         <v>9</v>
       </c>
       <c r="B7" s="7">
-        <f>E6*F7/G7</f>
-        <v>2.25</v>
+        <f t="shared" si="0"/>
+        <v>0.625</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>0.5</v>
@@ -851,14 +851,14 @@
         <v>10</v>
       </c>
       <c r="B8" s="7">
-        <f>E7*F8/G8</f>
-        <v>0.45</v>
+        <f t="shared" si="0"/>
+        <v>0.125</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E8">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>0.1</v>
@@ -872,12 +872,12 @@
         <v>11</v>
       </c>
       <c r="B9" s="7">
-        <f>E8*F9/G9</f>
-        <v>22.5</v>
+        <f t="shared" si="0"/>
+        <v>6.25</v>
       </c>
       <c r="C9" s="2"/>
       <c r="E9">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -891,14 +891,14 @@
         <v>12</v>
       </c>
       <c r="B10" s="8">
-        <f>E9*F10/G10</f>
-        <v>4.5</v>
+        <f t="shared" si="0"/>
+        <v>1.25</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -912,14 +912,14 @@
         <v>13</v>
       </c>
       <c r="B11" s="7">
-        <f>E10*F11/G11</f>
-        <v>2.25</v>
+        <f t="shared" si="0"/>
+        <v>0.625</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>0.5</v>
@@ -933,12 +933,12 @@
         <v>14</v>
       </c>
       <c r="B12" s="7">
-        <f>E11*F12/G12</f>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="C12" s="2"/>
       <c r="E12">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>8</v>
@@ -952,14 +952,14 @@
         <v>15</v>
       </c>
       <c r="B13" s="7">
-        <f>E12*F13/G13</f>
-        <v>1.125</v>
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F13">
         <v>0.25</v>
@@ -1085,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="7">
-        <f>E2*F3/G3</f>
+        <f t="shared" ref="B3:B13" si="0">E2*F3/G3</f>
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1106,7 +1106,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="7">
-        <f>E3*F4/G4</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1127,7 +1127,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="7">
-        <f>E4*F5/G5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1148,7 +1148,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="7">
-        <f>E5*F6/G6</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1169,7 +1169,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="7">
-        <f>E6*F7/G7</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1190,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="7">
-        <f>E7*F8/G8</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1212,7 +1212,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="7">
-        <f>E8*F9/G9</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="2"/>
@@ -1231,7 +1231,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="8">
-        <f>E9*F10/G10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1252,7 +1252,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="7">
-        <f>E10*F11/G11</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1273,7 +1273,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="7">
-        <f>E11*F12/G12</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="2"/>
@@ -1292,7 +1292,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="7">
-        <f>E12*F13/G13</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="C13" s="2" t="s">
